--- a/orcamentos/Fundação Cultural de Camboriú_Fundação.xlsx
+++ b/orcamentos/Fundação Cultural de Camboriú_Fundação.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB5B582-AB5E-4F49-9817-531FF63D541B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113776C1-5EA2-4D5A-BF78-8016644A65FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="geral" sheetId="1" r:id="rId1"/>
     <sheet name="resultado" sheetId="5" r:id="rId2"/>
-    <sheet name="cenarios" sheetId="4" r:id="rId3"/>
-    <sheet name="Leste" sheetId="7" r:id="rId4"/>
-    <sheet name="Centro" sheetId="6" r:id="rId5"/>
+    <sheet name="paraFilter" sheetId="8" r:id="rId3"/>
+    <sheet name="cenarios" sheetId="4" r:id="rId4"/>
+    <sheet name="Leste" sheetId="7" r:id="rId5"/>
+    <sheet name="Centro" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -637,6 +638,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5974222D-49E3-4ECF-BA70-A7A9C1E1D52D}">
+  <sheetPr codeName="Planilha2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -648,6 +650,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1105A21D-D91E-49A8-81F1-14E5A1FC2EF5}">
+  <sheetPr codeName="Planilha6"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Planilha4"/>
   <dimension ref="A1:B3"/>
@@ -691,11 +708,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC092B7-255A-4221-8729-44EE6F033DD0}">
+  <sheetPr codeName="Planilha3"/>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -772,8 +790,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA781EA-95D8-40EB-A44D-CD912FE76931}">
+  <sheetPr codeName="Planilha5"/>
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
